--- a/data_year/zb/人民生活/农村居民平均每百户年末主要耐用消费品拥有量.xlsx
+++ b/data_year/zb/人民生活/农村居民平均每百户年末主要耐用消费品拥有量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,43 +599,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.3</v>
+        <v>13.2584815494</v>
       </c>
       <c r="C4" t="n">
-        <v>116.9</v>
+        <v>116.886462886</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>15.0087355082</v>
       </c>
       <c r="E4" t="n">
-        <v>15.3</v>
+        <v>15.3127691349</v>
       </c>
       <c r="F4" t="n">
-        <v>67.5</v>
+        <v>67.5210076292</v>
       </c>
       <c r="G4" t="n">
-        <v>78.8</v>
+        <v>78.8178109935</v>
       </c>
       <c r="H4" t="n">
-        <v>52.5</v>
+        <v>52.5161005954</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4.0795413743</v>
       </c>
       <c r="J4" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5537856057</v>
       </c>
       <c r="K4" t="n">
-        <v>50.1</v>
+        <v>50.0520961971</v>
       </c>
       <c r="L4" t="n">
-        <v>226.1</v>
+        <v>226.1270263029</v>
       </c>
       <c r="M4" t="n">
-        <v>38.8</v>
+        <v>38.7678047037</v>
       </c>
       <c r="N4" t="n">
-        <v>25.7</v>
+        <v>25.7202173352</v>
       </c>
     </row>
     <row r="5">
@@ -645,43 +645,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.4</v>
+        <v>17.4076</v>
       </c>
       <c r="C5" t="n">
-        <v>118.8</v>
+        <v>118.7552</v>
       </c>
       <c r="D5" t="n">
-        <v>16.1</v>
+        <v>16.1064</v>
       </c>
       <c r="E5" t="n">
-        <v>18.4</v>
+        <v>18.3556</v>
       </c>
       <c r="F5" t="n">
-        <v>65.09999999999999</v>
+        <v>65.0723</v>
       </c>
       <c r="G5" t="n">
-        <v>84</v>
+        <v>84.0334</v>
       </c>
       <c r="H5" t="n">
-        <v>59.7</v>
+        <v>59.6658</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.4217</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5</v>
+        <v>89.5467</v>
       </c>
       <c r="K5" t="n">
-        <v>57.7</v>
+        <v>57.6611</v>
       </c>
       <c r="L5" t="n">
-        <v>240.7</v>
+        <v>240.7489</v>
       </c>
       <c r="M5" t="n">
-        <v>47.6</v>
+        <v>47.5825</v>
       </c>
       <c r="N5" t="n">
-        <v>27.9</v>
+        <v>27.9442</v>
       </c>
     </row>
     <row r="6">
@@ -691,43 +691,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.3</v>
+        <v>19.2998407194</v>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>120.0331819103</v>
       </c>
       <c r="D6" t="n">
-        <v>17.3</v>
+        <v>17.2550444143</v>
       </c>
       <c r="E6" t="n">
-        <v>20.4</v>
+        <v>20.4220711821</v>
       </c>
       <c r="F6" t="n">
-        <v>64.09999999999999</v>
+        <v>64.0505480261</v>
       </c>
       <c r="G6" t="n">
-        <v>86.3</v>
+        <v>86.277381882</v>
       </c>
       <c r="H6" t="n">
-        <v>62.5</v>
+        <v>62.4835120073</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.9080819275</v>
       </c>
       <c r="J6" t="n">
-        <v>91.7</v>
+        <v>91.69881044749999</v>
       </c>
       <c r="K6" t="n">
-        <v>61.1</v>
+        <v>61.0687016753</v>
       </c>
       <c r="L6" t="n">
-        <v>246.1</v>
+        <v>246.0565925965</v>
       </c>
       <c r="M6" t="n">
-        <v>52.6</v>
+        <v>52.6288511431</v>
       </c>
       <c r="N6" t="n">
-        <v>29.2</v>
+        <v>29.2137295078</v>
       </c>
     </row>
     <row r="7">
@@ -737,43 +737,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.3</v>
+        <v>22.2671246145</v>
       </c>
       <c r="C7" t="n">
-        <v>116.6</v>
+        <v>116.5795006939</v>
       </c>
       <c r="D7" t="n">
-        <v>17.7</v>
+        <v>17.7278424751</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>26.0021072707</v>
       </c>
       <c r="F7" t="n">
-        <v>57.4</v>
+        <v>57.4293123854</v>
       </c>
       <c r="G7" t="n">
-        <v>88.5</v>
+        <v>88.54844769819999</v>
       </c>
       <c r="H7" t="n">
-        <v>68.7</v>
+        <v>68.6852002429</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.5380788863</v>
       </c>
       <c r="J7" t="n">
-        <v>95.90000000000001</v>
+        <v>95.869465154</v>
       </c>
       <c r="K7" t="n">
-        <v>64.90000000000001</v>
+        <v>64.8704129682</v>
       </c>
       <c r="L7" t="n">
-        <v>257</v>
+        <v>256.9991193513</v>
       </c>
       <c r="M7" t="n">
-        <v>65.2</v>
+        <v>65.24693022450001</v>
       </c>
       <c r="N7" t="n">
-        <v>26.9</v>
+        <v>26.8665913233</v>
       </c>
     </row>
     <row r="8">
@@ -783,43 +783,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.7</v>
+        <v>24.660270847</v>
       </c>
       <c r="C8" t="n">
-        <v>117.6</v>
+        <v>117.5551465794</v>
       </c>
       <c r="D8" t="n">
-        <v>18.9</v>
+        <v>18.9347560362</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>28.9777527981</v>
       </c>
       <c r="F8" t="n">
-        <v>55.1</v>
+        <v>55.1188007436</v>
       </c>
       <c r="G8" t="n">
-        <v>91.59999999999999</v>
+        <v>91.5674034188</v>
       </c>
       <c r="H8" t="n">
-        <v>71.7</v>
+        <v>71.71129663489999</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.3411920655</v>
       </c>
       <c r="J8" t="n">
-        <v>98.59999999999999</v>
+        <v>98.6361605637</v>
       </c>
       <c r="K8" t="n">
-        <v>70.09999999999999</v>
+        <v>70.0721674142</v>
       </c>
       <c r="L8" t="n">
-        <v>261.2</v>
+        <v>261.1778692376</v>
       </c>
       <c r="M8" t="n">
-        <v>71.3</v>
+        <v>71.3151017846</v>
       </c>
       <c r="N8" t="n">
-        <v>27.5</v>
+        <v>27.5415936946</v>
       </c>
     </row>
     <row r="9">
@@ -829,43 +829,125 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.4</v>
+        <v>26.4463724194542</v>
       </c>
       <c r="C9" t="n">
-        <v>117.8</v>
+        <v>117.798330490464</v>
       </c>
       <c r="D9" t="n">
-        <v>19.7</v>
+        <v>19.6644690313213</v>
       </c>
       <c r="E9" t="n">
-        <v>30.9</v>
+        <v>30.8914679614103</v>
       </c>
       <c r="F9" t="n">
-        <v>53.6</v>
+        <v>53.6285943937431</v>
       </c>
       <c r="G9" t="n">
-        <v>92.59999999999999</v>
+        <v>92.63453658752471</v>
       </c>
       <c r="H9" t="n">
-        <v>76.2</v>
+        <v>76.235361521766</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.22870370491753</v>
       </c>
       <c r="J9" t="n">
-        <v>100.1</v>
+        <v>100.050477125878</v>
       </c>
       <c r="K9" t="n">
-        <v>73.09999999999999</v>
+        <v>73.13718555801719</v>
       </c>
       <c r="L9" t="n">
-        <v>260.9</v>
+        <v>260.881951771632</v>
       </c>
       <c r="M9" t="n">
-        <v>73.8</v>
+        <v>73.8478377033111</v>
       </c>
       <c r="N9" t="n">
-        <v>28.3</v>
+        <v>28.3182313678058</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>77.8714760780296</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.69301529293968</v>
+      </c>
+      <c r="J10" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>80.741730027022</v>
+      </c>
+      <c r="L10" t="n">
+        <v>266.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>89</v>
+      </c>
+      <c r="N10" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>32.4452597407591</v>
+      </c>
+      <c r="C11" t="n">
+        <v>116.459575023623</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>49.0350121336049</v>
+      </c>
+      <c r="G11" t="n">
+        <v>96.8417557698468</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>103.905998503501</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>266.945267187786</v>
+      </c>
+      <c r="M11" t="n">
+        <v>92.1754391424046</v>
+      </c>
+      <c r="N11" t="n">
+        <v>25.0022975185688</v>
       </c>
     </row>
   </sheetData>
